--- a/biology/Botanique/Cedrelinga_cateniformis/Cedrelinga_cateniformis.xlsx
+++ b/biology/Botanique/Cedrelinga_cateniformis/Cedrelinga_cateniformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cedrelinga cateniformis est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire d'Amérique du Sud. C'est l'unique espèce acceptée du genre Cedrelinga (genre monotypique).
-Ce sont  des arbres pouvant atteindre 40 mètres de haut et 1,8 mètre de diamètre, exploités pour leur bois commercialisé sous le nom de tornillo[3].
+Ce sont  des arbres pouvant atteindre 40 mètres de haut et 1,8 mètre de diamètre, exploités pour leur bois commercialisé sous le nom de tornillo.
 Cet arbre imposant est dit arbre émergent, par exemple dans le parc national Yasuni, car avec ses 40 m de haut (voire plus), il domine la forêt et sa canopée de 25-30 m.
 </t>
         </is>
@@ -513,12 +525,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (18 novembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (18 novembre 2018) :
 Cedrelinga catenaeformis (Ducke) Ducke
 Piptadenia catenaeformis Ducke
-Piptadenia cateniformis Ducke[4]
+Piptadenia cateniformis Ducke
 Pithecellobium catenaeformis (Ducke) Cardenas</t>
         </is>
       </c>
